--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3096.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3096.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.551330352295739</v>
+        <v>1.244075179100037</v>
       </c>
       <c r="B1">
-        <v>2.645147283677356</v>
+        <v>2.375225067138672</v>
       </c>
       <c r="C1">
-        <v>2.984170388221064</v>
+        <v>3.931496381759644</v>
       </c>
       <c r="D1">
-        <v>3.547986177706008</v>
+        <v>2.983071804046631</v>
       </c>
       <c r="E1">
-        <v>2.53491248339565</v>
+        <v>1.29889714717865</v>
       </c>
     </row>
   </sheetData>
